--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>Environment</t>
   </si>
@@ -189,13 +189,32 @@
   </si>
   <si>
     <t>1.92</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +278,41 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +353,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -358,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -373,6 +515,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,8 +817,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,9 +858,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +901,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,23 +946,25 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="15" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="15" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -886,11 +1042,11 @@
       <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="22" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="4"/>
@@ -902,7 +1058,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -925,11 +1081,11 @@
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>42</v>
+      <c r="J3" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="4"/>
@@ -941,7 +1097,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -964,11 +1120,11 @@
       <c r="I4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>42</v>
+      <c r="J4" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="4"/>
@@ -980,7 +1136,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1003,11 +1159,11 @@
       <c r="I5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>42</v>
+      <c r="J5" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="4"/>
@@ -1019,7 +1175,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1042,11 +1198,11 @@
       <c r="I6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>42</v>
+      <c r="J6" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="4"/>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A85F46F-6A60-4087-832B-E44EB17B9D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
   <si>
     <t>Environment</t>
   </si>
@@ -151,18 +152,6 @@
     <t>Note the Load time of Login</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>8.54</t>
-  </si>
-  <si>
-    <t>2.94</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
     <t>Performance_TC4</t>
   </si>
   <si>
@@ -176,9 +165,6 @@
     <t xml:space="preserve">Note page load time </t>
   </si>
   <si>
-    <t>7.12</t>
-  </si>
-  <si>
     <t>Performance_TC5</t>
   </si>
   <si>
@@ -188,33 +174,63 @@
     <t>refer image https://zarcacom-my.sharepoint.com/:i:/g/personal/abhandi_zarca_com/EQ7-q0jBKZlHnUb2MLNs6DABDlEKbTnci8Q2Q8tDzbOp-w</t>
   </si>
   <si>
-    <t>1.92</t>
+    <t>Performance_TC6</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
+    <t>Registration</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.25</t>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Performance_TC7</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Gaurav,Golatkar,test_username,GVG3196@test,testemail@gmail.com</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>25.43</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Billing - Address field not present on page.</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>6.71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,27 +264,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,8 +313,41 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +372,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -346,13 +386,83 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -500,33 +610,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -807,12 +926,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -891,12 +1010,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,12 +1061,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +1086,7 @@
     <col min="13" max="15" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1013,13 +1132,16 @@
       <c r="O1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1042,23 +1164,24 @@
       <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="9"/>
+      <c r="J2" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="8"/>
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1081,23 +1204,24 @@
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="9"/>
+      <c r="J3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="4"/>
       <c r="N3" s="1"/>
       <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1120,23 +1244,24 @@
       <c r="I4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="9"/>
+      <c r="J4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="4"/>
       <c r="N4" s="1"/>
       <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1151,31 +1276,32 @@
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="4"/>
       <c r="N5" s="1"/>
       <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1190,26 +1316,112 @@
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="9"/>
+      <c r="J6" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="4"/>
       <c r="N6" s="1"/>
       <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A85F46F-6A60-4087-832B-E44EB17B9D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A626F5D-37EF-439C-9246-BF8D9DADEE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="PerformanceTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="121">
   <si>
     <t>Environment</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Expected2</t>
-  </si>
-  <si>
-    <t>Expected3</t>
-  </si>
-  <si>
     <t>https://www.sogosurvey.com/</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>Static Home</t>
   </si>
   <si>
-    <t>Access https://www.sogosurvey.com/</t>
-  </si>
-  <si>
     <t>Note page load time</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>Click Login Button</t>
   </si>
   <si>
-    <t>refer image https://zarcacom-my.sharepoint.com/:i:/g/personal/abhandi_zarca_com/EboZrPEb3zdFob6SA6dnJ4MBE90mWHtLq5h_3ng86ngtcA</t>
-  </si>
-  <si>
     <t>SoGo@NS3196</t>
   </si>
   <si>
@@ -145,10 +133,6 @@
     <t>Platform Log in</t>
   </si>
   <si>
-    <t xml:space="preserve">Access https://www.sogosurvey.com/static/nogin.aspx
-Enter Credentials and Login to platform  </t>
-  </si>
-  <si>
     <t>Note the Load time of Login</t>
   </si>
   <si>
@@ -158,10 +142,6 @@
     <t>Top Differentiating Features</t>
   </si>
   <si>
-    <t xml:space="preserve">refer image https://zarcacom-my.sharepoint.com/:i:/g/personal/abhandi_zarca_com/EU3aSvD27i5OhaaMi1RTbaUBsw9l_UGXziyxk8rlvNHdfA?e=OUGRn3
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Note page load time </t>
   </si>
   <si>
@@ -171,58 +151,241 @@
     <t>Pricing - Free&amp;Paid Plans</t>
   </si>
   <si>
-    <t>refer image https://zarcacom-my.sharepoint.com/:i:/g/personal/abhandi_zarca_com/EQ7-q0jBKZlHnUb2MLNs6DABDlEKbTnci8Q2Q8tDzbOp-w</t>
-  </si>
-  <si>
     <t>Performance_TC6</t>
   </si>
   <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Performance_TC7</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Gaurav,Golatkar,test_username,GVG3196@test,testemail@gmail.com</t>
+  </si>
+  <si>
+    <t>Performance_TC8</t>
+  </si>
+  <si>
+    <t>Load SM Tab</t>
+  </si>
+  <si>
+    <t>Night support readings,2759</t>
+  </si>
+  <si>
+    <t>Performance_TC9</t>
+  </si>
+  <si>
+    <t>Depositing a Question in QB</t>
+  </si>
+  <si>
+    <t>Performance_TC10</t>
+  </si>
+  <si>
+    <t>Night support readings,2759,Additional suggestions do you have for improving the support for new teachers at this school</t>
+  </si>
+  <si>
+    <t>Performance_TC11</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Add Comment</t>
+  </si>
+  <si>
+    <t>Delete Comment</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Performance_TC12</t>
+  </si>
+  <si>
+    <t>Move Page</t>
+  </si>
+  <si>
+    <t>Night support readings,2759,1</t>
+  </si>
+  <si>
+    <t>Performance_TC13</t>
+  </si>
+  <si>
+    <t>Move Matrix Grid</t>
+  </si>
+  <si>
+    <t>Performance_TC14</t>
+  </si>
+  <si>
+    <t>Load DM Tab</t>
+  </si>
+  <si>
+    <t>Performance_TC15</t>
+  </si>
+  <si>
+    <t>Load RM tab</t>
+  </si>
+  <si>
+    <t>Cutomer Feedback,2721</t>
+  </si>
+  <si>
+    <t>Performance_TC16</t>
+  </si>
+  <si>
+    <t>Load OMNI Report</t>
+  </si>
+  <si>
+    <t>Performance_TC17</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Capture page load time of Static Home Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Login Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Top Differentiating Feature Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Pricing Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Registration Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Billing Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Home Page (Platform login)</t>
+  </si>
+  <si>
+    <t>Capture the page load time of SM Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Depositing in Question Bank</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Add Comment</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Delete Comment</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Move Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of moving Matrix Grid question</t>
+  </si>
+  <si>
+    <t>Capture the page load time of DM Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Report Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Omni Report</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Logout</t>
+  </si>
+  <si>
+    <t>Reading 1</t>
+  </si>
+  <si>
+    <t>Reading 2</t>
+  </si>
+  <si>
+    <t>Reading 3</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>12.04</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7.77</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>12.55</t>
+  </si>
+  <si>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>16.27</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Registration</t>
-  </si>
-  <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>Performance_TC7</t>
-  </si>
-  <si>
-    <t>Billing</t>
-  </si>
-  <si>
-    <t>Gaurav,Golatkar,test_username,GVG3196@test,testemail@gmail.com</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>10.02</t>
-  </si>
-  <si>
-    <t>6.03</t>
-  </si>
-  <si>
-    <t>25.43</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Billing - Address field not present on page.</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>6.71</t>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>2.51</t>
   </si>
 </sst>
 </file>
@@ -230,7 +393,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,30 +487,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,67 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -610,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -620,6 +701,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -638,14 +720,6 @@
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -956,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1045,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1063,10 +1137,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,10 +1157,11 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="13" max="15" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="16" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="111.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -1118,30 +1193,33 @@
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1153,35 +1231,45 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="L2" s="8"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M2" s="4">
+        <v>4.78</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="O2" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="P2" s="9">
+        <f>AVERAGE(M2:O2)</f>
+        <v>4.2600000000000007</v>
+      </c>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1193,35 +1281,45 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" ref="P3:P18" si="0">AVERAGE(M3:O3)</f>
+        <v>2.1933333333333334</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1233,35 +1331,45 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="L4" s="8"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>8.98</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="0"/>
+        <v>9.1266666666666669</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1273,35 +1381,45 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M5" s="4">
+        <v>6.32</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7766666666666664</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1313,116 +1431,682 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M6" s="4">
+        <v>3.01</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7766666666666668</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M7" s="4">
+        <v>4.63</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5433333333333339</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="4">
+        <v>3.44</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="0"/>
+        <v>4.6133333333333333</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="4">
+        <v>9.69</v>
+      </c>
+      <c r="N9" s="1">
+        <v>9.52</v>
+      </c>
+      <c r="O9" s="4">
+        <v>7.71</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="0"/>
+        <v>8.9733333333333345</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2866666666666668</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="31" t="s">
+      <c r="K11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="4">
+        <v>4.01</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2533333333333334</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="H12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1199999999999997</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="4">
+        <v>3.68</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="O13" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6133333333333333</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="4">
+        <v>5.58</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="O14" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="0"/>
+        <v>4.373333333333334</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="O15" s="4">
+        <v>4.05</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5866666666666669</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="4">
+        <v>7.06</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5.94</v>
+      </c>
+      <c r="O16" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="0"/>
+        <v>5.8033333333333337</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0133333333333336</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4866666666666666</v>
+      </c>
+      <c r="Q18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{3A059418-576A-4680-B69E-251A95BCE337}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{3BA5E488-EB21-4F2D-B962-8635BBD138AA}"/>
+    <hyperlink ref="H5" r:id="rId3" display="Capture the page load time of Top Differentiating Feature Page" xr:uid="{62ADDCF6-848E-4237-AE58-9E5BF45C8E08}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{278DACE7-0617-4E51-BA65-0F48F54F1E8D}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{514B384F-5A6A-4387-AAD6-888C94EAFB5C}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{1C1F578E-8AF9-4650-B0AA-4E3A40B2CCB0}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{BC85C1A0-DC3F-411A-B7E7-A962A7B78906}"/>
+    <hyperlink ref="H9:H17" r:id="rId8" display="Capture the page load time of Billing Page" xr:uid="{54DBFD5C-3893-46EB-B168-219D8D340230}"/>
+    <hyperlink ref="H18" r:id="rId9" xr:uid="{52C200CA-3D6B-4C68-B2D7-720B7B62D7E5}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{12F64291-2B44-4FE9-9FC5-F15E0A6179BB}"/>
+    <hyperlink ref="H10" r:id="rId11" xr:uid="{C3CDB8C7-22F6-4A93-8489-39804E6E5089}"/>
+    <hyperlink ref="H11" r:id="rId12" xr:uid="{3A307E56-912E-4BD7-84F6-142F5CE70D44}"/>
+    <hyperlink ref="H12" r:id="rId13" xr:uid="{3CF3D5C6-EE29-4CA5-A140-5345B546BBF2}"/>
+    <hyperlink ref="H13" r:id="rId14" xr:uid="{D3A19956-AD04-4722-A899-93773A88010B}"/>
+    <hyperlink ref="H14" r:id="rId15" xr:uid="{85BE0BC5-8601-470F-AB7B-872DC1889239}"/>
+    <hyperlink ref="H15" r:id="rId16" xr:uid="{E1C4BCDC-809D-4A28-8C0F-4A60F2FE1AC4}"/>
+    <hyperlink ref="H16" r:id="rId17" xr:uid="{7A02DCFF-3EA9-410D-8739-85D21E7A2E3A}"/>
+    <hyperlink ref="H17" r:id="rId18" xr:uid="{CBAF6A21-DBA0-4470-A06D-8260B468E5BE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A626F5D-37EF-439C-9246-BF8D9DADEE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D192B7C-197E-4FBF-BE70-64EEC1F1A7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
     <sheet name="Participation" sheetId="4" r:id="rId2"/>
     <sheet name="Users" sheetId="2" r:id="rId3"/>
-    <sheet name="PerformanceTC" sheetId="3" r:id="rId4"/>
+    <sheet name="PerformanceTC" sheetId="5" r:id="rId4"/>
+    <sheet name="lb vs live" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="113">
   <si>
     <t>Environment</t>
   </si>
@@ -193,199 +194,175 @@
     <t>Performance_TC11</t>
   </si>
   <si>
+    <t>Add Comment</t>
+  </si>
+  <si>
+    <t>Delete Comment</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Performance_TC12</t>
+  </si>
+  <si>
+    <t>Move Page</t>
+  </si>
+  <si>
+    <t>Night support readings,2759,1</t>
+  </si>
+  <si>
+    <t>Performance_TC13</t>
+  </si>
+  <si>
+    <t>Move Matrix Grid</t>
+  </si>
+  <si>
+    <t>Performance_TC14</t>
+  </si>
+  <si>
+    <t>Load DM Tab</t>
+  </si>
+  <si>
+    <t>Performance_TC15</t>
+  </si>
+  <si>
+    <t>Load RM tab</t>
+  </si>
+  <si>
+    <t>Cutomer Feedback,2721</t>
+  </si>
+  <si>
+    <t>Performance_TC16</t>
+  </si>
+  <si>
+    <t>Load OMNI Report</t>
+  </si>
+  <si>
+    <t>Performance_TC17</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Capture page load time of Static Home Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Login Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Top Differentiating Feature Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Pricing Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Registration Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Billing Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Home Page (Platform login)</t>
+  </si>
+  <si>
+    <t>Capture the page load time of SM Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Depositing in Question Bank</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Add Comment</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Delete Comment</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Move Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of moving Matrix Grid question</t>
+  </si>
+  <si>
+    <t>Capture the page load time of DM Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Report Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Omni Report</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Logout</t>
+  </si>
+  <si>
+    <t>Reading 1</t>
+  </si>
+  <si>
+    <t>Reading 2</t>
+  </si>
+  <si>
+    <t>Reading 3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Welcome@123</t>
+  </si>
+  <si>
+    <t>https://lb.sogosurvey.com/</t>
+  </si>
+  <si>
+    <t>SoGo Live</t>
+  </si>
+  <si>
+    <t>Diff in %</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Diff= lb-sogo</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>LB.SoGo</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Billing - Address field not present on page.</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Add Comment</t>
-  </si>
-  <si>
-    <t>Delete Comment</t>
-  </si>
-  <si>
-    <t>Gaurav</t>
-  </si>
-  <si>
-    <t>Performance_TC12</t>
-  </si>
-  <si>
-    <t>Move Page</t>
-  </si>
-  <si>
-    <t>Night support readings,2759,1</t>
-  </si>
-  <si>
-    <t>Performance_TC13</t>
-  </si>
-  <si>
-    <t>Move Matrix Grid</t>
-  </si>
-  <si>
-    <t>Performance_TC14</t>
-  </si>
-  <si>
-    <t>Load DM Tab</t>
-  </si>
-  <si>
-    <t>Performance_TC15</t>
-  </si>
-  <si>
-    <t>Load RM tab</t>
-  </si>
-  <si>
-    <t>Cutomer Feedback,2721</t>
-  </si>
-  <si>
-    <t>Performance_TC16</t>
-  </si>
-  <si>
-    <t>Load OMNI Report</t>
-  </si>
-  <si>
-    <t>Performance_TC17</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Capture page load time of Static Home Page</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Login Page</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Top Differentiating Feature Page</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Pricing Page</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Registration Page</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Billing Page</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Home Page (Platform login)</t>
-  </si>
-  <si>
-    <t>Capture the page load time of SM Tab</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Depositing in Question Bank</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Add Comment</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Delete Comment</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Move Page</t>
-  </si>
-  <si>
-    <t>Capture the page load time of moving Matrix Grid question</t>
-  </si>
-  <si>
-    <t>Capture the page load time of DM Tab</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Report Tab</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Omni Report</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Logout</t>
-  </si>
-  <si>
-    <t>Reading 1</t>
-  </si>
-  <si>
-    <t>Reading 2</t>
-  </si>
-  <si>
-    <t>Reading 3</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>12.04</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>4.87</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7.77</t>
-  </si>
-  <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>12.55</t>
-  </si>
-  <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>16.27</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>4.06</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>2.51</t>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>6.39</t>
   </si>
 </sst>
 </file>
@@ -393,7 +370,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +414,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -488,7 +477,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,12 +497,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -687,11 +687,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -702,30 +703,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1002,10 +1024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1058,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{132B2354-4A9B-4433-94FC-F96C1CCDE7E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1086,10 +1122,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,19 +1164,36 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D861E7AD-9DE1-4B0F-8186-FCBF4413BBD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC465A38-8D91-4E24-8C36-7B43119C878B}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,13 +1252,13 @@
         <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -1219,7 +1272,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1237,13 +1290,13 @@
         <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>112</v>
+      <c r="J2" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>99</v>
@@ -1269,7 +1322,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1287,16 +1340,16 @@
         <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="4">
@@ -1319,7 +1372,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1337,13 +1390,13 @@
         <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>112</v>
+      <c r="J4" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>99</v>
@@ -1369,7 +1422,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1387,13 +1440,13 @@
         <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>112</v>
+      <c r="J5" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>99</v>
@@ -1419,7 +1472,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1437,13 +1490,13 @@
         <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>112</v>
+      <c r="J6" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>99</v>
@@ -1469,13 +1522,13 @@
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -1487,13 +1540,13 @@
         <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>112</v>
+      <c r="J7" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>99</v>
@@ -1519,13 +1572,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1537,18 +1590,20 @@
         <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>112</v>
+      <c r="J8" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="M8" s="4">
         <v>3.44</v>
       </c>
@@ -1571,13 +1626,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1589,13 +1644,13 @@
         <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>112</v>
+      <c r="J9" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>99</v>
@@ -1623,13 +1678,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1641,13 +1696,13 @@
         <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>112</v>
+      <c r="J10" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>99</v>
@@ -1681,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -1690,19 +1745,19 @@
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>56</v>
+      <c r="J11" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="4">
@@ -1733,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -1742,19 +1797,19 @@
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>56</v>
+      <c r="J12" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="4">
@@ -1776,16 +1831,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -1794,16 +1849,16 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>112</v>
+      <c r="J13" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>99</v>
@@ -1823,21 +1878,21 @@
         <v>3.6133333333333333</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -1846,19 +1901,19 @@
         <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="26" t="s">
-        <v>112</v>
+      <c r="J14" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="4">
@@ -1880,16 +1935,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -1898,16 +1953,16 @@
         <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="26" t="s">
-        <v>112</v>
+      <c r="J15" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>99</v>
@@ -1932,16 +1987,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -1950,16 +2005,16 @@
         <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="26" t="s">
-        <v>112</v>
+      <c r="J16" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>99</v>
@@ -1979,21 +2034,21 @@
         <v>5.8033333333333337</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -2002,16 +2057,16 @@
         <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>112</v>
+      <c r="J17" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>99</v>
@@ -2031,21 +2086,21 @@
         <v>2.0133333333333336</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
@@ -2054,19 +2109,19 @@
         <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>112</v>
+      <c r="J18" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="4">
@@ -2085,28 +2140,766 @@
       <c r="Q18" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{3A059418-576A-4680-B69E-251A95BCE337}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{3BA5E488-EB21-4F2D-B962-8635BBD138AA}"/>
-    <hyperlink ref="H5" r:id="rId3" display="Capture the page load time of Top Differentiating Feature Page" xr:uid="{62ADDCF6-848E-4237-AE58-9E5BF45C8E08}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{278DACE7-0617-4E51-BA65-0F48F54F1E8D}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{514B384F-5A6A-4387-AAD6-888C94EAFB5C}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{1C1F578E-8AF9-4650-B0AA-4E3A40B2CCB0}"/>
-    <hyperlink ref="H4" r:id="rId7" xr:uid="{BC85C1A0-DC3F-411A-B7E7-A962A7B78906}"/>
-    <hyperlink ref="H9:H17" r:id="rId8" display="Capture the page load time of Billing Page" xr:uid="{54DBFD5C-3893-46EB-B168-219D8D340230}"/>
-    <hyperlink ref="H18" r:id="rId9" xr:uid="{52C200CA-3D6B-4C68-B2D7-720B7B62D7E5}"/>
-    <hyperlink ref="H9" r:id="rId10" xr:uid="{12F64291-2B44-4FE9-9FC5-F15E0A6179BB}"/>
-    <hyperlink ref="H10" r:id="rId11" xr:uid="{C3CDB8C7-22F6-4A93-8489-39804E6E5089}"/>
-    <hyperlink ref="H11" r:id="rId12" xr:uid="{3A307E56-912E-4BD7-84F6-142F5CE70D44}"/>
-    <hyperlink ref="H12" r:id="rId13" xr:uid="{3CF3D5C6-EE29-4CA5-A140-5345B546BBF2}"/>
-    <hyperlink ref="H13" r:id="rId14" xr:uid="{D3A19956-AD04-4722-A899-93773A88010B}"/>
-    <hyperlink ref="H14" r:id="rId15" xr:uid="{85BE0BC5-8601-470F-AB7B-872DC1889239}"/>
-    <hyperlink ref="H15" r:id="rId16" xr:uid="{E1C4BCDC-809D-4A28-8C0F-4A60F2FE1AC4}"/>
-    <hyperlink ref="H16" r:id="rId17" xr:uid="{7A02DCFF-3EA9-410D-8739-85D21E7A2E3A}"/>
-    <hyperlink ref="H17" r:id="rId18" xr:uid="{CBAF6A21-DBA0-4470-A06D-8260B468E5BE}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{5072442B-17F8-4366-B7E3-952B4A12B996}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{3E880919-1086-4310-ACBC-293F8EF4C2BF}"/>
+    <hyperlink ref="H5" r:id="rId3" display="Capture the page load time of Top Differentiating Feature Page" xr:uid="{2E255351-571B-4820-8470-F7164F7DBCE3}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{B60E422C-7EC8-4E09-AA1E-536D56615BA2}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{FF225EF7-1D14-498A-AC87-DC39921E59E6}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{3BAA0504-AE0B-4DBF-9BDE-70E908CA7402}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{4A8EB2EC-3A24-45FB-ABF2-3A590FDC26E0}"/>
+    <hyperlink ref="H9:H17" r:id="rId8" display="Capture the page load time of Billing Page" xr:uid="{D38127E7-67CB-42D5-BE5C-905F56F79F59}"/>
+    <hyperlink ref="H18" r:id="rId9" xr:uid="{68F9513D-C94E-425F-BAC9-AE8A3EDBCE82}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{7A24F655-D5D1-44B0-873D-566956BC9AD3}"/>
+    <hyperlink ref="H10" r:id="rId11" xr:uid="{7EFDEB60-2D9A-4055-AE6D-06718293679D}"/>
+    <hyperlink ref="H11" r:id="rId12" xr:uid="{95520C6F-2EED-4122-8E81-0F4254DE04BE}"/>
+    <hyperlink ref="H12" r:id="rId13" xr:uid="{CD120E6F-838E-4176-B458-B0A34147FA91}"/>
+    <hyperlink ref="H13" r:id="rId14" xr:uid="{D8B88577-4789-43A6-94F4-D38CB8CA541E}"/>
+    <hyperlink ref="H14" r:id="rId15" xr:uid="{E52E96BC-A5BA-4EC7-9EEC-8BD05506191E}"/>
+    <hyperlink ref="H15" r:id="rId16" xr:uid="{A2AFE3CB-C307-4CE1-B55F-05F4261A6536}"/>
+    <hyperlink ref="H16" r:id="rId17" xr:uid="{B59D8AB8-D3D4-4855-93B1-3E8F9D1D114C}"/>
+    <hyperlink ref="H17" r:id="rId18" xr:uid="{AC170986-093B-4A68-B8D3-E2477AF7A77F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E1C93F-4583-47E7-B8EC-4D8AD8002704}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="N1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6.48</v>
+      </c>
+      <c r="D3" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5.61</v>
+      </c>
+      <c r="G3" s="13">
+        <f>AVERAGE(C3:E3)</f>
+        <v>6.5966666666666667</v>
+      </c>
+      <c r="I3" s="11">
+        <f>L3-G3</f>
+        <v>7.8599999999999985</v>
+      </c>
+      <c r="J3" s="12">
+        <f>I3/G3</f>
+        <v>1.1915108640727639</v>
+      </c>
+      <c r="L3" s="11">
+        <f>AVERAGE(N3:P3)</f>
+        <v>14.456666666666665</v>
+      </c>
+      <c r="N3" s="10">
+        <v>12.27</v>
+      </c>
+      <c r="O3" s="10">
+        <v>15.45</v>
+      </c>
+      <c r="P3" s="10">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10">
+        <v>4.57</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.37</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3.86</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G18" si="0">AVERAGE(C4:E4)</f>
+        <v>3.9333333333333336</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I19" si="1">L4-G4</f>
+        <v>3.3333333333333215E-2</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J19" si="2">I4/G4</f>
+        <v>8.4745762711864094E-3</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L19" si="3">AVERAGE(N4:P4)</f>
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="N4" s="10">
+        <v>3.94</v>
+      </c>
+      <c r="O4" s="10">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="P4" s="10">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10">
+        <v>11.55</v>
+      </c>
+      <c r="D5" s="10">
+        <v>12.53</v>
+      </c>
+      <c r="E5" s="7">
+        <v>12.71</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>12.263333333333334</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.98666666666666636</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="2"/>
+        <v>8.0456645827670537E-2</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="3"/>
+        <v>13.25</v>
+      </c>
+      <c r="N5" s="10">
+        <v>13.82</v>
+      </c>
+      <c r="O5" s="10">
+        <v>15.09</v>
+      </c>
+      <c r="P5" s="10">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D6" s="10">
+        <v>9.34</v>
+      </c>
+      <c r="E6" s="10">
+        <v>7.77</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>8.5499999999999989</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.88666666666666583</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.10370370370370362</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="3"/>
+        <v>7.6633333333333331</v>
+      </c>
+      <c r="N6" s="10">
+        <v>7.75</v>
+      </c>
+      <c r="O6" s="10">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="P6" s="10">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4.91</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3.64</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="1"/>
+        <v>2.5566666666666662</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="2"/>
+        <v>0.67280701754385952</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="3"/>
+        <v>6.3566666666666665</v>
+      </c>
+      <c r="N7" s="10">
+        <v>4.42</v>
+      </c>
+      <c r="O7" s="10">
+        <v>4.57</v>
+      </c>
+      <c r="P7" s="10">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7.75</v>
+      </c>
+      <c r="D8" s="10">
+        <v>6.48</v>
+      </c>
+      <c r="E8" s="10">
+        <v>7.41</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>7.2133333333333338</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="2"/>
+        <v>0.35212569316081327</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="3"/>
+        <v>9.7533333333333339</v>
+      </c>
+      <c r="N8" s="10">
+        <v>9.74</v>
+      </c>
+      <c r="O8" s="10">
+        <v>10.81</v>
+      </c>
+      <c r="P8" s="10">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7.96</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6.02</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>6.7266666666666666</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.80333333333333456</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="2"/>
+        <v>0.11942517343904875</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="3"/>
+        <v>7.5300000000000011</v>
+      </c>
+      <c r="N9" s="10">
+        <v>13.13</v>
+      </c>
+      <c r="O9" s="10">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="10">
+        <v>12.95</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15.13</v>
+      </c>
+      <c r="E10" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>13.793333333333331</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.81000000000000227</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="2"/>
+        <v>5.8724021266312404E-2</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="3"/>
+        <v>14.603333333333333</v>
+      </c>
+      <c r="N10" s="10">
+        <v>13.31</v>
+      </c>
+      <c r="O10" s="10">
+        <v>14.7</v>
+      </c>
+      <c r="P10" s="10">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>2.14</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.22666666666666679</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.10591900311526485</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="3"/>
+        <v>1.9133333333333333</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1.68</v>
+      </c>
+      <c r="O11" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4.17</v>
+      </c>
+      <c r="E12" s="10">
+        <v>6.36</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>5.0766666666666671</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.44333333333333247</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="2"/>
+        <v>8.7327642810242759E-2</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="3"/>
+        <v>5.52</v>
+      </c>
+      <c r="N12" s="10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="O12" s="10">
+        <v>5.52</v>
+      </c>
+      <c r="P12" s="10">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.61</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4.59</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.9166666666666661</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="2"/>
+        <v>0.47520661157024779</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="3"/>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="N13" s="10">
+        <v>5.56</v>
+      </c>
+      <c r="O13" s="10">
+        <v>6.18</v>
+      </c>
+      <c r="P13" s="10">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5.45</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5.04</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>5.0233333333333334</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="1"/>
+        <v>1.6066666666666665</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="2"/>
+        <v>0.31984074319840738</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="3"/>
+        <v>6.63</v>
+      </c>
+      <c r="N14" s="10">
+        <v>6.68</v>
+      </c>
+      <c r="O14" s="10">
+        <v>6.93</v>
+      </c>
+      <c r="P14" s="10">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>5.67</v>
+      </c>
+      <c r="E15" s="10">
+        <v>6.49</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>5.7666666666666657</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000075</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="2"/>
+        <v>0.14566473988439321</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="3"/>
+        <v>6.6066666666666665</v>
+      </c>
+      <c r="N15" s="10">
+        <v>6.85</v>
+      </c>
+      <c r="O15" s="10">
+        <v>6.69</v>
+      </c>
+      <c r="P15" s="10">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8.77</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5.91</v>
+      </c>
+      <c r="E16" s="10">
+        <v>9.36</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>8.0133333333333336</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.4975041597337783E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="3"/>
+        <v>7.8933333333333335</v>
+      </c>
+      <c r="N16" s="10">
+        <v>6.87</v>
+      </c>
+      <c r="O16" s="10">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="P16" s="10">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="10">
+        <v>7.81</v>
+      </c>
+      <c r="D17" s="10">
+        <v>6.75</v>
+      </c>
+      <c r="E17" s="7">
+        <v>7.71</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>7.4233333333333329</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>3.296666666666666</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.44409519533004033</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="3"/>
+        <v>10.719999999999999</v>
+      </c>
+      <c r="N17" s="10">
+        <v>8.86</v>
+      </c>
+      <c r="O17" s="10">
+        <v>14.04</v>
+      </c>
+      <c r="P17" s="10">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D18" s="10">
+        <v>4.51</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>4.8366666666666669</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3499999999999996</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.27911784975878695</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="3"/>
+        <v>6.1866666666666665</v>
+      </c>
+      <c r="N18" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="O18" s="10">
+        <v>6.18</v>
+      </c>
+      <c r="P18" s="10">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G19" s="13">
+        <f>AVERAGE(C19:E19)</f>
+        <v>2.4</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
+        <v>1.4933333333333332</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="2"/>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="3"/>
+        <v>3.8933333333333331</v>
+      </c>
+      <c r="N19" s="10">
+        <v>7.07</v>
+      </c>
+      <c r="O19" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P19" s="10">
+        <v>2.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
+++ b/Engage/Sogo-Performance/src/main/resources/excelfiles/Sogo_Performance.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D192B7C-197E-4FBF-BE70-64EEC1F1A7C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F4414-2401-43D1-B73C-7B369E5B82D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
     <sheet name="Participation" sheetId="4" r:id="rId2"/>
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="PerformanceTC" sheetId="5" r:id="rId4"/>
-    <sheet name="lb vs live" sheetId="7" r:id="rId5"/>
+    <sheet name="PlatformReadingsTC" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="126">
   <si>
     <t>Environment</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Billing</t>
   </si>
   <si>
-    <t>Gaurav,Golatkar,test_username,GVG3196@test,testemail@gmail.com</t>
-  </si>
-  <si>
     <t>Performance_TC8</t>
   </si>
   <si>
@@ -317,100 +314,94 @@
     <t>https://lb.sogosurvey.com/</t>
   </si>
   <si>
-    <t>SoGo Live</t>
-  </si>
-  <si>
-    <t>Diff in %</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t xml:space="preserve"> Iframe Button not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to find element Main Folder on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Failed to execute script :return currentQuestionJSON.qid;</t>
+  </si>
+  <si>
+    <t>Gaurav,Golatkar,sogo_testusername,GVG3196@test,testemail@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Billing - Address field not present on page.</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Diff= lb-sogo</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>LB.SoGo</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Billing - Address field not present on page.</t>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>sogo_snegi-entplus</t>
+  </si>
+  <si>
+    <t>mubashir_SoGo@123</t>
+  </si>
+  <si>
+    <t>22.0 Backward Survey</t>
+  </si>
+  <si>
+    <t>Step 2 : Re-order Questions</t>
+  </si>
+  <si>
+    <t>Step 3: Select Report Properties</t>
+  </si>
+  <si>
+    <t>Step 4 : Select Filter</t>
+  </si>
+  <si>
+    <t>Generate Report</t>
+  </si>
+  <si>
+    <t>Step 1 : Select Survey Questions</t>
+  </si>
+  <si>
+    <t>Survey Title</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC1</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>6.28</t>
-  </si>
-  <si>
-    <t>2.74</t>
-  </si>
-  <si>
-    <t>6.39</t>
-  </si>
-  <si>
-    <t>6.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iframe Button not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not able to find element Main Folder on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Failed to execute script :return currentQuestionJSON.qid;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Registration - First Name not present on page.</t>
-  </si>
-  <si>
-    <t>18.78</t>
-  </si>
-  <si>
-    <t>23.03</t>
-  </si>
-  <si>
-    <t>21.43</t>
-  </si>
-  <si>
-    <t>12.53</t>
-  </si>
-  <si>
-    <t>9.51</t>
-  </si>
-  <si>
-    <t>16.31</t>
-  </si>
-  <si>
-    <t>37.03</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>10.22</t>
-  </si>
-  <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>12.11</t>
+    <t>PlatformReadings_TC2</t>
+  </si>
+  <si>
+    <t>PlatformReadings_TC3</t>
+  </si>
+  <si>
+    <t>Individual Report</t>
+  </si>
+  <si>
+    <t>Bar Graph Report</t>
+  </si>
+  <si>
+    <t>Response Table report</t>
   </si>
 </sst>
 </file>
@@ -418,7 +409,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,13 +456,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -491,63 +475,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,168 +496,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -817,12 +590,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -833,59 +605,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1164,7 +896,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1198,13 +930,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1260,10 +992,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1031,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,19 +1042,34 @@
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{D861E7AD-9DE1-4B0F-8186-FCBF4413BBD9}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{4E996C4D-9595-4A4C-8DAB-1BD93C3F2810}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1330,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC465A38-8D91-4E24-8C36-7B43119C878B}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -1428,16 +1175,16 @@
         <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="39" t="s">
-        <v>109</v>
+      <c r="J2" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="4">
@@ -1460,7 +1207,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1478,16 +1225,16 @@
         <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>109</v>
+      <c r="J3" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="4">
@@ -1510,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1528,16 +1275,16 @@
         <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>109</v>
+      <c r="J4" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="4">
@@ -1560,7 +1307,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1578,16 +1325,16 @@
         <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="39" t="s">
-        <v>109</v>
+      <c r="J5" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="4">
@@ -1610,7 +1357,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1628,16 +1375,16 @@
         <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="39" t="s">
-        <v>109</v>
+      <c r="J6" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="4">
@@ -1660,13 +1407,13 @@
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -1678,16 +1425,16 @@
         <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="39" t="s">
-        <v>109</v>
+      <c r="J7" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="4">
@@ -1710,13 +1457,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1728,19 +1475,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="40" t="s">
-        <v>107</v>
+      <c r="J8" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="M8" s="4">
         <v>3.44</v>
@@ -1756,21 +1503,21 @@
         <v>4.6133333333333333</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1779,19 +1526,19 @@
         <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="39" t="s">
-        <v>109</v>
+      <c r="J9" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="4">
@@ -1808,21 +1555,21 @@
         <v>8.9733333333333345</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1831,19 +1578,19 @@
         <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="40" t="s">
-        <v>107</v>
+      <c r="J10" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="4">
@@ -1860,21 +1607,21 @@
         <v>1.2866666666666668</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -1883,22 +1630,22 @@
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="40" t="s">
-        <v>107</v>
+      <c r="J11" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="M11" s="4">
         <v>4.01</v>
@@ -1914,21 +1661,21 @@
         <v>3.2533333333333334</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -1937,19 +1684,19 @@
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="40" t="s">
-        <v>107</v>
+      <c r="J12" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="4">
@@ -1966,21 +1713,21 @@
         <v>3.1199999999999997</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -1989,22 +1736,22 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="40" t="s">
-        <v>107</v>
+      <c r="J13" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="M13" s="4">
         <v>3.68</v>
@@ -2020,21 +1767,21 @@
         <v>3.6133333333333333</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -2043,22 +1790,22 @@
         <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="40" t="s">
-        <v>107</v>
+      <c r="J14" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="M14" s="4">
         <v>5.58</v>
@@ -2074,21 +1821,21 @@
         <v>4.373333333333334</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -2097,19 +1844,19 @@
         <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>109</v>
+      <c r="J15" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="4">
@@ -2126,21 +1873,21 @@
         <v>4.5866666666666669</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -2149,19 +1896,19 @@
         <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="39" t="s">
-        <v>109</v>
+      <c r="J16" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="4">
@@ -2178,21 +1925,21 @@
         <v>5.8033333333333337</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -2201,19 +1948,19 @@
         <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="39" t="s">
-        <v>109</v>
+      <c r="J17" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="4">
@@ -2230,21 +1977,21 @@
         <v>2.0133333333333336</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
@@ -2253,19 +2000,19 @@
         <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>109</v>
+      <c r="J18" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="4">
@@ -2310,740 +2057,251 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E1C93F-4583-47E7-B8EC-4D8AD8002704}">
-  <dimension ref="A1:P19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C4B212-CB98-4DB5-B9D6-ACC2C7B6F74B}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="12" max="19" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="N1" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>101</v>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="4">
+        <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10">
-        <v>6.48</v>
-      </c>
-      <c r="D3" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="E3" s="10">
-        <v>5.61</v>
-      </c>
-      <c r="G3" s="13">
-        <f>AVERAGE(C3:E3)</f>
-        <v>6.5966666666666667</v>
-      </c>
-      <c r="I3" s="11">
-        <f>L3-G3</f>
-        <v>7.8599999999999985</v>
-      </c>
-      <c r="J3" s="12">
-        <f>I3/G3</f>
-        <v>1.1915108640727639</v>
-      </c>
-      <c r="L3" s="11">
-        <f>AVERAGE(N3:P3)</f>
-        <v>14.456666666666665</v>
-      </c>
-      <c r="N3" s="10">
-        <v>12.27</v>
-      </c>
-      <c r="O3" s="10">
-        <v>15.45</v>
-      </c>
-      <c r="P3" s="10">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3.37</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3.86</v>
-      </c>
-      <c r="G4" s="13">
-        <f t="shared" ref="G4:G18" si="0">AVERAGE(C4:E4)</f>
-        <v>3.9333333333333336</v>
-      </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I19" si="1">L4-G4</f>
-        <v>3.3333333333333215E-2</v>
-      </c>
-      <c r="J4" s="12">
-        <f t="shared" ref="J4:J19" si="2">I4/G4</f>
-        <v>8.4745762711864094E-3</v>
-      </c>
-      <c r="L4" s="11">
-        <f t="shared" ref="L4:L19" si="3">AVERAGE(N4:P4)</f>
-        <v>3.9666666666666668</v>
-      </c>
-      <c r="N4" s="10">
-        <v>3.94</v>
-      </c>
-      <c r="O4" s="10">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="P4" s="10">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="10">
-        <v>11.55</v>
-      </c>
-      <c r="D5" s="10">
-        <v>12.53</v>
-      </c>
-      <c r="E5" s="7">
-        <v>12.71</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" si="0"/>
-        <v>12.263333333333334</v>
-      </c>
-      <c r="I5" s="11">
-        <f t="shared" si="1"/>
-        <v>0.98666666666666636</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="2"/>
-        <v>8.0456645827670537E-2</v>
-      </c>
-      <c r="L5" s="11">
-        <f t="shared" si="3"/>
-        <v>13.25</v>
-      </c>
-      <c r="N5" s="10">
-        <v>13.82</v>
-      </c>
-      <c r="O5" s="10">
-        <v>15.09</v>
-      </c>
-      <c r="P5" s="10">
-        <v>10.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="D6" s="10">
-        <v>9.34</v>
-      </c>
-      <c r="E6" s="10">
-        <v>7.77</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="0"/>
-        <v>8.5499999999999989</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="1"/>
-        <v>-0.88666666666666583</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.10370370370370362</v>
-      </c>
-      <c r="L6" s="11">
-        <f t="shared" si="3"/>
-        <v>7.6633333333333331</v>
-      </c>
-      <c r="N6" s="10">
-        <v>7.75</v>
-      </c>
-      <c r="O6" s="10">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="P6" s="10">
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4.91</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3.64</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" si="1"/>
-        <v>2.5566666666666662</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="2"/>
-        <v>0.67280701754385952</v>
-      </c>
-      <c r="L7" s="11">
-        <f t="shared" si="3"/>
-        <v>6.3566666666666665</v>
-      </c>
-      <c r="N7" s="10">
-        <v>4.42</v>
-      </c>
-      <c r="O7" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="P7" s="10">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="10">
-        <v>7.75</v>
-      </c>
-      <c r="D8" s="10">
-        <v>6.48</v>
-      </c>
-      <c r="E8" s="10">
-        <v>7.41</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="0"/>
-        <v>7.2133333333333338</v>
-      </c>
-      <c r="I8" s="11">
-        <f t="shared" si="1"/>
-        <v>2.54</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="2"/>
-        <v>0.35212569316081327</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" si="3"/>
-        <v>9.7533333333333339</v>
-      </c>
-      <c r="N8" s="10">
-        <v>9.74</v>
-      </c>
-      <c r="O8" s="10">
-        <v>10.81</v>
-      </c>
-      <c r="P8" s="10">
-        <v>8.7100000000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10">
-        <v>7.96</v>
-      </c>
-      <c r="D9" s="10">
-        <v>6.02</v>
-      </c>
-      <c r="E9" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="0"/>
-        <v>6.7266666666666666</v>
-      </c>
-      <c r="I9" s="11">
-        <f t="shared" si="1"/>
-        <v>0.80333333333333456</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="2"/>
-        <v>0.11942517343904875</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" si="3"/>
-        <v>7.5300000000000011</v>
-      </c>
-      <c r="N9" s="10">
-        <v>13.13</v>
-      </c>
-      <c r="O9" s="10">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="10">
-        <v>12.95</v>
-      </c>
-      <c r="D10" s="10">
-        <v>15.13</v>
-      </c>
-      <c r="E10" s="10">
-        <v>13.3</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>13.793333333333331</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" si="1"/>
-        <v>0.81000000000000227</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="2"/>
-        <v>5.8724021266312404E-2</v>
-      </c>
-      <c r="L10" s="11">
-        <f t="shared" si="3"/>
-        <v>14.603333333333333</v>
-      </c>
-      <c r="N10" s="10">
-        <v>13.31</v>
-      </c>
-      <c r="O10" s="10">
-        <v>14.7</v>
-      </c>
-      <c r="P10" s="10">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1.83</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.89</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>2.14</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="1"/>
-        <v>-0.22666666666666679</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.10591900311526485</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" si="3"/>
-        <v>1.9133333333333333</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1.68</v>
-      </c>
-      <c r="O11" s="10">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="P11" s="10">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="D12" s="10">
-        <v>4.17</v>
-      </c>
-      <c r="E12" s="10">
-        <v>6.36</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="0"/>
-        <v>5.0766666666666671</v>
-      </c>
-      <c r="I12" s="11">
-        <f t="shared" si="1"/>
-        <v>0.44333333333333247</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="2"/>
-        <v>8.7327642810242759E-2</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" si="3"/>
-        <v>5.52</v>
-      </c>
-      <c r="N12" s="10">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="O12" s="10">
-        <v>5.52</v>
-      </c>
-      <c r="P12" s="10">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="10">
-        <v>3.9</v>
-      </c>
-      <c r="D13" s="10">
-        <v>3.61</v>
-      </c>
-      <c r="E13" s="10">
-        <v>4.59</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" si="0"/>
-        <v>4.0333333333333332</v>
-      </c>
-      <c r="I13" s="11">
-        <f t="shared" si="1"/>
-        <v>1.9166666666666661</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="2"/>
-        <v>0.47520661157024779</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="3"/>
-        <v>5.9499999999999993</v>
-      </c>
-      <c r="N13" s="10">
-        <v>5.56</v>
-      </c>
-      <c r="O13" s="10">
-        <v>6.18</v>
-      </c>
-      <c r="P13" s="10">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="10">
-        <v>5.45</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4.58</v>
-      </c>
-      <c r="E14" s="10">
-        <v>5.04</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="0"/>
-        <v>5.0233333333333334</v>
-      </c>
-      <c r="I14" s="11">
-        <f t="shared" si="1"/>
-        <v>1.6066666666666665</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="2"/>
-        <v>0.31984074319840738</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" si="3"/>
-        <v>6.63</v>
-      </c>
-      <c r="N14" s="10">
-        <v>6.68</v>
-      </c>
-      <c r="O14" s="10">
-        <v>6.93</v>
-      </c>
-      <c r="P14" s="10">
-        <v>6.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="10">
-        <v>5.14</v>
-      </c>
-      <c r="D15" s="10">
-        <v>5.67</v>
-      </c>
-      <c r="E15" s="10">
-        <v>6.49</v>
-      </c>
-      <c r="G15" s="13">
-        <f t="shared" si="0"/>
-        <v>5.7666666666666657</v>
-      </c>
-      <c r="I15" s="11">
-        <f t="shared" si="1"/>
-        <v>0.84000000000000075</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="2"/>
-        <v>0.14566473988439321</v>
-      </c>
-      <c r="L15" s="11">
-        <f t="shared" si="3"/>
-        <v>6.6066666666666665</v>
-      </c>
-      <c r="N15" s="10">
-        <v>6.85</v>
-      </c>
-      <c r="O15" s="10">
-        <v>6.69</v>
-      </c>
-      <c r="P15" s="10">
-        <v>6.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="10">
-        <v>8.77</v>
-      </c>
-      <c r="D16" s="10">
-        <v>5.91</v>
-      </c>
-      <c r="E16" s="10">
-        <v>9.36</v>
-      </c>
-      <c r="G16" s="13">
-        <f t="shared" si="0"/>
-        <v>8.0133333333333336</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="1"/>
-        <v>-0.12000000000000011</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.4975041597337783E-2</v>
-      </c>
-      <c r="L16" s="11">
-        <f t="shared" si="3"/>
-        <v>7.8933333333333335</v>
-      </c>
-      <c r="N16" s="10">
-        <v>6.87</v>
-      </c>
-      <c r="O16" s="10">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="P16" s="10">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="10">
-        <v>7.81</v>
-      </c>
-      <c r="D17" s="10">
-        <v>6.75</v>
-      </c>
-      <c r="E17" s="7">
-        <v>7.71</v>
-      </c>
-      <c r="G17" s="13">
-        <f t="shared" si="0"/>
-        <v>7.4233333333333329</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="1"/>
-        <v>3.296666666666666</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.44409519533004033</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="3"/>
-        <v>10.719999999999999</v>
-      </c>
-      <c r="N17" s="10">
-        <v>8.86</v>
-      </c>
-      <c r="O17" s="10">
-        <v>14.04</v>
-      </c>
-      <c r="P17" s="10">
-        <v>9.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D18" s="10">
-        <v>4.51</v>
-      </c>
-      <c r="E18" s="10">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="0"/>
-        <v>4.8366666666666669</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="1"/>
-        <v>1.3499999999999996</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="2"/>
-        <v>0.27911784975878695</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" si="3"/>
-        <v>6.1866666666666665</v>
-      </c>
-      <c r="N18" s="10">
-        <v>5.7</v>
-      </c>
-      <c r="O18" s="10">
-        <v>6.18</v>
-      </c>
-      <c r="P18" s="10">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G19" s="13">
-        <f>AVERAGE(C19:E19)</f>
-        <v>2.4</v>
-      </c>
-      <c r="I19" s="11">
-        <f t="shared" si="1"/>
-        <v>1.4933333333333332</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="2"/>
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" si="3"/>
-        <v>3.8933333333333331</v>
-      </c>
-      <c r="N19" s="10">
-        <v>7.07</v>
-      </c>
-      <c r="O19" s="10">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="P19" s="10">
-        <v>2.29</v>
-      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="4">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T4" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="N1:P1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>